--- a/Week_1/Book1.xlsx
+++ b/Week_1/Book1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0400b1dcfee898cb/Documents/OSU/CS 325/CS325/Week_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{EC1B6870-28A3-453E-A1D0-940CD8FA5C49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F93F5BC0-FA09-4762-8A5D-E73B08B09E62}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="8_{EC1B6870-28A3-453E-A1D0-940CD8FA5C49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{81A19F0B-6F41-466C-B666-7C9625E4612E}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-96" windowWidth="23256" windowHeight="12720" xr2:uid="{139A86C7-CA04-46DA-95BF-041C89199F04}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{139A86C7-CA04-46DA-95BF-041C89199F04}"/>
   </bookViews>
   <sheets>
     <sheet name="mergeTime" sheetId="1" r:id="rId1"/>
     <sheet name="insertTime" sheetId="2" r:id="rId2"/>
+    <sheet name="stoogeTime" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,12 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>N</t>
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>mergesort (logn)</t>
+  </si>
+  <si>
+    <t>insertsort (logn^2)</t>
+  </si>
+  <si>
+    <t>StoogeSort(nlog_2^3)</t>
   </si>
 </sst>
 </file>
@@ -93,6 +103,2401 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>merge(blue)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs insert(orange) vs stooge(red) sort</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mergeTime!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mergesort (logn)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mergeTime!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mergeTime!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.7925491333007799E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.78446388244628E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7766170501708901E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.120677709579467</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18051528930663999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.257311820983886</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32413339614868097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D870-44C8-9936-EE18F48E5830}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mergeTime!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>insertsort (logn^2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mergeTime!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mergeTime!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.6666413929882576E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62566154104341376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98025671236261602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2259816716255432</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5799005418494976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8354357349758312</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0351075810575572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D870-44C8-9936-EE18F48E5830}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="430124752"/>
+        <c:axId val="228273376"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>stoogeTime!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>StoogeSort(nlog_2^3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="3"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="175000"/>
+                      <a:alpha val="25000"/>
+                    </a:schemeClr>
+                  </a:glow>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="22225" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="139700">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="14000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C6FA-4F17-AC65-11D8BF3F5A4E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>stoogeTime!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>stoogeTime!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1031994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30119400000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92779610000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7087297000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2646514999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2296928999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2791132899999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.702387332000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.796847105000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.110543966289999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7A69-425D-8546-E0782378A752}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1333473151"/>
+        <c:axId val="1333474399"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="430124752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="228273376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="228273376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430124752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1333474399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1333473151"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1333473151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1333474399"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>stoogeTime!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>StoogeSort(nlog_2^3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>stoogeTime!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>stoogeTime!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1031994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30119400000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92779610000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7087297000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2646514999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2296928999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2791132899999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.702387332000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.796847105000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.110543966289999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC56-402C-86CA-2A5977EE9F46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="482096656"/>
+        <c:axId val="381163856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="482096656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381163856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="381163856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482096656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>236219</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7FF8C78-495A-421C-B22F-3F2415463111}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74BE8D8C-38E0-4FBA-99A6-747EC824997F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,84 +2797,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62644F12-CC4B-4049-822B-DCAD1F691A48}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5000</v>
       </c>
       <c r="B2">
         <v>2.7925491333007799E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>LOG(1.08809399604797)</f>
+        <v>3.6666413929882576E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10000</v>
       </c>
       <c r="B3">
         <v>5.78446388244628E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f>LOG(4.22339344024658)</f>
+        <v>0.62566154104341376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15000</v>
       </c>
       <c r="B4">
         <v>8.7766170501708901E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f>LOG(9.55557250976562)</f>
+        <v>0.98025671236261602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20000</v>
       </c>
       <c r="B5">
         <v>0.120677709579467</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f>LOG(16.8260304927825)</f>
+        <v>1.2259816716255432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>30000</v>
       </c>
       <c r="B6">
         <v>0.18051528930663999</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>LOG(38.0102338790893)</f>
+        <v>1.5799005418494976</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>40000</v>
       </c>
       <c r="B7">
         <v>0.257311820983886</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f>LOG(68.4598171710968)</f>
+        <v>1.8354357349758312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>50000</v>
       </c>
       <c r="B8">
         <v>0.32413339614868097</v>
+      </c>
+      <c r="C8">
+        <f>LOG(108.419545173645)</f>
+        <v>2.0351075810575572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>5000</v>
+      </c>
+      <c r="B16">
+        <v>2.7925491333007799E-2</v>
+      </c>
+      <c r="C16">
+        <f>LOG(1.08809399604797)</f>
+        <v>3.6666413929882576E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10000</v>
+      </c>
+      <c r="B17">
+        <v>5.78446388244628E-2</v>
+      </c>
+      <c r="C17">
+        <f>LOG(4.22339344024658)</f>
+        <v>0.62566154104341376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>15000</v>
+      </c>
+      <c r="B18">
+        <v>8.7766170501708901E-2</v>
+      </c>
+      <c r="C18">
+        <f>LOG(9.55557250976562)</f>
+        <v>0.98025671236261602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>20000</v>
+      </c>
+      <c r="B19">
+        <v>0.120677709579467</v>
+      </c>
+      <c r="C19">
+        <f>LOG(16.8260304927825)</f>
+        <v>1.2259816716255432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>30000</v>
+      </c>
+      <c r="B20">
+        <v>0.18051528930663999</v>
+      </c>
+      <c r="C20">
+        <f>LOG(38.0102338790893)</f>
+        <v>1.5799005418494976</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>40000</v>
+      </c>
+      <c r="B21">
+        <v>0.257311820983886</v>
+      </c>
+      <c r="C21">
+        <f>LOG(68.4598171710968)</f>
+        <v>1.8354357349758312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>50000</v>
+      </c>
+      <c r="B22">
+        <v>0.32413339614868097</v>
+      </c>
+      <c r="C22">
+        <f>LOG(108.419545173645)</f>
+        <v>2.0351075810575572</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -478,15 +3011,15 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5000</v>
       </c>
@@ -502,7 +3035,7 @@
         <v>1.0880939960479701</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10000</v>
       </c>
@@ -510,7 +3043,7 @@
         <v>4.2233934402465803</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15000</v>
       </c>
@@ -518,7 +3051,7 @@
         <v>9.5555725097656197</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20000</v>
       </c>
@@ -526,7 +3059,7 @@
         <v>16.8260304927825</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>30000</v>
       </c>
@@ -534,7 +3067,7 @@
         <v>38.010233879089299</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>40000</v>
       </c>
@@ -542,7 +3075,7 @@
         <v>68.459817171096802</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>50000</v>
       </c>
@@ -553,4 +3086,108 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DD46CF-E2B6-42AF-A6E0-DFB2870244FF}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>0.1031994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>0.30119400000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4">
+        <v>0.92779610000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5">
+        <v>2.7087297000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>8.2646514999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>600</v>
+      </c>
+      <c r="B7">
+        <v>8.2296928999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>700</v>
+      </c>
+      <c r="B8">
+        <v>8.2791132899999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>800</v>
+      </c>
+      <c r="B9">
+        <v>24.702387332000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>900</v>
+      </c>
+      <c r="B10">
+        <v>24.796847105000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>25.110543966289999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Week_1/Book1.xlsx
+++ b/Week_1/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0400b1dcfee898cb/Documents/OSU/CS 325/CS325/Week_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="8_{EC1B6870-28A3-453E-A1D0-940CD8FA5C49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{81A19F0B-6F41-466C-B666-7C9625E4612E}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="8_{EC1B6870-28A3-453E-A1D0-940CD8FA5C49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C088AE03-F770-41C0-8343-1A66C06ECDED}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{139A86C7-CA04-46DA-95BF-041C89199F04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{139A86C7-CA04-46DA-95BF-041C89199F04}"/>
   </bookViews>
   <sheets>
     <sheet name="mergeTime" sheetId="1" r:id="rId1"/>
@@ -57,10 +57,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,14 +90,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -837,6 +857,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1333474399"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2803,13 +2824,13 @@
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2820,7 +2841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5000</v>
       </c>
@@ -2832,7 +2853,7 @@
         <v>3.6666413929882576E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10000</v>
       </c>
@@ -2844,7 +2865,7 @@
         <v>0.62566154104341376</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15000</v>
       </c>
@@ -2856,7 +2877,7 @@
         <v>0.98025671236261602</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20000</v>
       </c>
@@ -2868,7 +2889,7 @@
         <v>1.2259816716255432</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30000</v>
       </c>
@@ -2880,7 +2901,7 @@
         <v>1.5799005418494976</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>40000</v>
       </c>
@@ -2892,7 +2913,7 @@
         <v>1.8354357349758312</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50000</v>
       </c>
@@ -2904,7 +2925,7 @@
         <v>2.0351075810575572</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2915,7 +2936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5000</v>
       </c>
@@ -2927,7 +2948,7 @@
         <v>3.6666413929882576E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10000</v>
       </c>
@@ -2939,7 +2960,7 @@
         <v>0.62566154104341376</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15000</v>
       </c>
@@ -2951,7 +2972,7 @@
         <v>0.98025671236261602</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20000</v>
       </c>
@@ -2963,7 +2984,7 @@
         <v>1.2259816716255432</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>30000</v>
       </c>
@@ -2975,7 +2996,7 @@
         <v>1.5799005418494976</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>40000</v>
       </c>
@@ -2987,7 +3008,7 @@
         <v>1.8354357349758312</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>50000</v>
       </c>
@@ -3014,12 +3035,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3027,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5000</v>
       </c>
@@ -3035,7 +3056,7 @@
         <v>1.0880939960479701</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10000</v>
       </c>
@@ -3043,7 +3064,7 @@
         <v>4.2233934402465803</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15000</v>
       </c>
@@ -3051,7 +3072,7 @@
         <v>9.5555725097656197</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20000</v>
       </c>
@@ -3059,7 +3080,7 @@
         <v>16.8260304927825</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30000</v>
       </c>
@@ -3067,7 +3088,7 @@
         <v>38.010233879089299</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>40000</v>
       </c>
@@ -3075,7 +3096,7 @@
         <v>68.459817171096802</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50000</v>
       </c>
@@ -3093,96 +3114,99 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>100</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.1031994</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>200</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.30119400000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>300</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.92779610000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>400</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>2.7087297000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>500</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>8.2646514999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>600</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>8.2296928999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>700</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>8.2791132899999997</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>800</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>24.702387332000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>900</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>24.796847105000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>1000</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>25.110543966289999</v>
       </c>
     </row>
